--- a/Words.xlsx
+++ b/Words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\Dropbox\TODO\Sanskrit-workbook-flashcards-etc\TeX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karthik\GitHub\devanagari-flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860F5FF9-003D-4DEC-AF94-B1E3AB4D1455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7DE2DE-07F7-4F45-9758-618B6B651FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{32FB802C-7E4F-496A-B729-189FC65AFCB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="214">
   <si>
     <t>अ आ इ ई</t>
   </si>
@@ -453,6 +453,228 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>क विः</t>
+  </si>
+  <si>
+    <t>ख गः</t>
+  </si>
+  <si>
+    <t>ग दा ध रः</t>
+  </si>
+  <si>
+    <t>घ टि का</t>
+  </si>
+  <si>
+    <t>ङ का रः</t>
+  </si>
+  <si>
+    <t>च लः</t>
+  </si>
+  <si>
+    <t>च क्री</t>
+  </si>
+  <si>
+    <t>ज ग त्</t>
+  </si>
+  <si>
+    <t>ज ल म्</t>
+  </si>
+  <si>
+    <t>झ षः</t>
+  </si>
+  <si>
+    <t>झ ल्ली</t>
+  </si>
+  <si>
+    <t>ञ का रः</t>
+  </si>
+  <si>
+    <t>ञः</t>
+  </si>
+  <si>
+    <t>ट ङ्का रः</t>
+  </si>
+  <si>
+    <t>अ ट वी</t>
+  </si>
+  <si>
+    <t>ति ङ न्त</t>
+  </si>
+  <si>
+    <t>कु ठ रः</t>
+  </si>
+  <si>
+    <t>ठ क्कु रः</t>
+  </si>
+  <si>
+    <t>डा कि नी</t>
+  </si>
+  <si>
+    <t>ड म रुः</t>
+  </si>
+  <si>
+    <t>ढ क्कः</t>
+  </si>
+  <si>
+    <t>बा ढ म्</t>
+  </si>
+  <si>
+    <t>प्रा ण दः</t>
+  </si>
+  <si>
+    <t>प्र ण वः</t>
+  </si>
+  <si>
+    <t>त न्तुः</t>
+  </si>
+  <si>
+    <t>त त्त्वं</t>
+  </si>
+  <si>
+    <t>अ थ</t>
+  </si>
+  <si>
+    <t>अ थ र्व</t>
+  </si>
+  <si>
+    <t>द मः</t>
+  </si>
+  <si>
+    <t>द र्प हा</t>
+  </si>
+  <si>
+    <t>धा म</t>
+  </si>
+  <si>
+    <t>वि धा ता</t>
+  </si>
+  <si>
+    <t>न न्दः</t>
+  </si>
+  <si>
+    <t>न हु षः</t>
+  </si>
+  <si>
+    <t>प व नः</t>
+  </si>
+  <si>
+    <t>फ ल दः</t>
+  </si>
+  <si>
+    <t>शी फ रः</t>
+  </si>
+  <si>
+    <t>ब न्धुः</t>
+  </si>
+  <si>
+    <t>ब हु</t>
+  </si>
+  <si>
+    <t>भ द्रा</t>
+  </si>
+  <si>
+    <t>भ र्ता</t>
+  </si>
+  <si>
+    <t>म नुः</t>
+  </si>
+  <si>
+    <t>म न्त्र म्</t>
+  </si>
+  <si>
+    <t>प द्म म्</t>
+  </si>
+  <si>
+    <t>छ त्त्र म्</t>
+  </si>
+  <si>
+    <t>क म ल म्</t>
+  </si>
+  <si>
+    <t>य मः</t>
+  </si>
+  <si>
+    <t>य ज्ञः</t>
+  </si>
+  <si>
+    <t>र विः</t>
+  </si>
+  <si>
+    <t>र त्न म्</t>
+  </si>
+  <si>
+    <t>ल क्ष्मी</t>
+  </si>
+  <si>
+    <t>सु ल भः</t>
+  </si>
+  <si>
+    <t>व सुः</t>
+  </si>
+  <si>
+    <t>अ व नी</t>
+  </si>
+  <si>
+    <t>श ङ्क रः</t>
+  </si>
+  <si>
+    <t>श त म्</t>
+  </si>
+  <si>
+    <t>वृ ष भः</t>
+  </si>
+  <si>
+    <t>ष ण्मु खः</t>
+  </si>
+  <si>
+    <t>स त्यः</t>
+  </si>
+  <si>
+    <t>स र्व म्</t>
+  </si>
+  <si>
+    <t>ह रिः</t>
+  </si>
+  <si>
+    <t>ह स्त म्</t>
+  </si>
+  <si>
+    <t>अ क्ष रः</t>
+  </si>
+  <si>
+    <t>अ क्ष यः</t>
+  </si>
+  <si>
+    <t>य ज्ञ भु क्</t>
+  </si>
+  <si>
+    <t>ग णे शः</t>
+  </si>
+  <si>
+    <t>छ न्दः</t>
+  </si>
+  <si>
+    <t>ज्ञ प्तिः</t>
+  </si>
+  <si>
+    <t>ज्ञ ता</t>
+  </si>
+  <si>
+    <t>न ळ म्</t>
+  </si>
+  <si>
+    <t>नी ळ म्</t>
+  </si>
+  <si>
+    <t>हे ळ न म्</t>
+  </si>
+  <si>
+    <t>ख न न म्</t>
+  </si>
+  <si>
+    <t>घ नः</t>
   </si>
 </sst>
 </file>
@@ -809,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F510248-BFC6-41A9-AC4B-577F84FE407F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="str">
-        <f>CONCATENATE("\card
+        <f t="shared" ref="F1:F52" si="0">CONCATENATE("\card
 ","{",A1,"}{",B1,"}%dn
 {{",C1,"}{",D1,"}{",E1,"}}%dn")</f>
         <v>\card
@@ -847,7 +1069,7 @@
 {{अ मृ ता}{अ च्यु तः}{अ ग्निः}}%dn</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -864,9 +1086,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A2,"}{",B2,"}%dn
-{{",C2,"}{",D2,"}{",E2,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {आ}{अ आ इ ई}%dn
 {{आ क र्षि णी}{आ दि त्यः}{आ न नः}}%dn</v>
@@ -889,9 +1109,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A3,"}{",B3,"}%dn
-{{",C3,"}{",D3,"}{",E3,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {इ}{अ आ इ ई}%dn
 {{इ न्द्रा णी}{इ ज्यः}{इ डा}}%dn</v>
@@ -914,9 +1132,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A4,"}{",B4,"}%dn
-{{",C4,"}{",D4,"}{",E4,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ई}{अ आ इ ई}%dn
 {{ई शा नी}{ई श्व रः}{ई ड्यः}}%dn</v>
@@ -939,9 +1155,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A5,"}{",B5,"}%dn
-{{",C5,"}{",D5,"}{",E5,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {उ}{उ ऊ ऋ ॠ}%dn
 {{उ षः के शी}{उ पे न्द्रः}{उ मा}}%dn</v>
@@ -964,9 +1178,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A6,"}{",B6,"}%dn
-{{",C6,"}{",D6,"}{",E6,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ऊ}{उ ऊ ऋ ॠ}%dn
 {{ऊ र्ध्वा}{ऊ र्जि तः}{ऊ तिः}}%dn</v>
@@ -989,9 +1201,7 @@
         <v>126</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A7,"}{",B7,"}%dn
-{{",C7,"}{",D7,"}{",E7,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ऋ}{उ ऊ ऋ ॠ}%dn
 {{ऋ द्धि दा}{ऋ तुः}{ऋ क्}}%dn</v>
@@ -1014,9 +1224,7 @@
         <v>139</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A8,"}{",B8,"}%dn
-{{",C8,"}{",D8,"}{",E8,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ॠ}{उ ऊ ऋ ॠ}%dn
 {{ॠ का रा}{ॠ का रः}{ }}%dn</v>
@@ -1039,9 +1247,7 @@
         <v>139</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A9,"}{",B9,"}%dn
-{{",C9,"}{",D9,"}{",E9,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ऌ}{ऌ ॡ ए ऐ}%dn
 {{ऌ का रा}{ऌ व र्णः}{ }}%dn</v>
@@ -1064,9 +1270,7 @@
         <v>139</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A10,"}{",B10,"}%dn
-{{",C10,"}{",D10,"}{",E10,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ॡ}{ऌ ॡ ए ऐ}%dn
 {{ॡ षा}{ॡ}{ }}%dn</v>
@@ -1089,9 +1293,7 @@
         <v>130</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A11,"}{",B11,"}%dn
-{{",C11,"}{",D11,"}{",E11,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ए}{ऌ ॡ ए ऐ}%dn
 {{ए क प दा}{ए कः}{ए षः}}%dn</v>
@@ -1114,9 +1316,7 @@
         <v>131</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A12,"}{",B12,"}%dn
-{{",C12,"}{",D12,"}{",E12,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ऐ}{ऌ ॡ ए ऐ}%dn
 {{ऐ श्व र्या}{ऐ शा नः}{ऐ न्द्री}}%dn</v>
@@ -1139,9 +1339,7 @@
         <v>134</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A13,"}{",B13,"}%dn
-{{",C13,"}{",D13,"}{",E13,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {ओ}{ओ औ अं अः}%dn
 {{ओ ङ्का री}{ओ जः}{ओ ष्ठः}}%dn</v>
@@ -1164,9 +1362,7 @@
         <v>135</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A14,"}{",B14,"}%dn
-{{",C14,"}{",D14,"}{",E14,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {औ}{ओ औ अं अः}%dn
 {{औ ष धी}{औ ष धः}{औ ष्ट्रः}}%dn</v>
@@ -1189,9 +1385,7 @@
         <v>139</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A15,"}{",B15,"}%dn
-{{",C15,"}{",D15,"}{",E15,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {अं}{ओ औ अं अः}%dn
 {{अं बि का}{अं शः}{ }}%dn</v>
@@ -1214,15 +1408,13 @@
         <v>139</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>CONCATENATE("\card
-","{",A16,"}{",B16,"}%dn
-{{",C16,"}{",D16,"}{",E16,"}}%dn")</f>
+        <f t="shared" si="0"/>
         <v>\card
 {अः}{ओ औ अं अः}%dn
 {{अ क्ष रा}{ }{ }}%dn</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1232,8 +1424,20 @@
       <c r="C17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{क}{क ख ग घ ङ}%dn
+{{का ल रा त्री}{क विः}{क म ल म्}}%dn</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1243,8 +1447,20 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ख}{क ख ग घ ङ}%dn
+{{खा ऽती ता}{ख गः}{ख न न म्}}%dn</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1254,8 +1470,20 @@
       <c r="C19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ग}{क ख ग घ ङ}%dn
+{{गा य त्री}{ग दा ध रः}{ग णे शः}}%dn</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1265,8 +1493,20 @@
       <c r="C20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{घ}{क ख ग घ ङ}%dn
+{{घ ण्टा धा रि णी}{घ नः}{घ टि का}}%dn</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1276,8 +1516,20 @@
       <c r="C21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ङ}{क ख ग घ ङ}%dn
+{{ङा मि नी}{ङ का रः}{ति ङ न्त}}%dn</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1287,8 +1539,20 @@
       <c r="C22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{च}{च छ ज झ ञ}%dn
+{{च न्द्रा}{च क्री}{च लः}}%dn</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1298,8 +1562,20 @@
       <c r="C23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{छ}{च छ ज झ ञ}%dn
+{{छा या}{छ न्दः}{छ त्त्र म्}}%dn</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1309,8 +1585,20 @@
       <c r="C24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ज}{च छ ज झ ञ}%dn
+{{ज या}{ज ग त्}{ज ल म्}}%dn</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1320,8 +1608,20 @@
       <c r="C25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{झ}{च छ ज झ ञ}%dn
+{{झ ङ्का री}{झ षः}{झ ल्ली}}%dn</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1331,8 +1631,20 @@
       <c r="C26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ञ}{च छ ज झ ञ}%dn
+{{ज्ञा न रू पा}{ञ का रः}{ञः}}%dn</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1342,8 +1654,20 @@
       <c r="C27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ट}{ट ठ ड ढ ण}%dn
+{{ट ङ्क ह स्ता}{ट ङ्का रः}{अ ट वी}}%dn</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1353,8 +1677,20 @@
       <c r="C28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ठ}{ट ठ ड ढ ण}%dn
+{{ठ ङ्का री}{ठ क्कु रः}{कु ठ रः}}%dn</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1364,8 +1700,20 @@
       <c r="C29" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ड}{ट ठ ड ढ ण}%dn
+{{डा म री}{डा कि नी}{ड म रुः}}%dn</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1375,8 +1723,20 @@
       <c r="C30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ढ}{ट ठ ड ढ ण}%dn
+{{ढ ङ्का रि णी}{ढ क्कः}{बा ढ म्}}%dn</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1386,8 +1746,20 @@
       <c r="C31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ण}{ट ठ ड ढ ण}%dn
+{{णा मि री}{प्र ण वः}{प्रा ण दः}}%dn</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1397,8 +1769,20 @@
       <c r="C32" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{त}{त थ द ध न}%dn
+{{ता म सी}{त त्त्वं}{त न्तुः}}%dn</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1408,8 +1792,20 @@
       <c r="C33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{थ}{त थ द ध न}%dn
+{{था न्वी}{अ थ}{अ थ र्व}}%dn</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1419,8 +1815,20 @@
       <c r="C34" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{द}{त थ द ध न}%dn
+{{दा क्षा य णी}{द मः}{द र्प हा}}%dn</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1430,8 +1838,20 @@
       <c r="C35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ध}{त थ द ध न}%dn
+{{धा त्री}{धा म}{वि धा ता}}%dn</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1441,8 +1861,20 @@
       <c r="C36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{न}{त थ द ध न}%dn
+{{न न्दा}{न न्दः}{न हु षः}}%dn</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1452,8 +1884,20 @@
       <c r="C37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{प}{प फ ब भ म}%dn
+{{पा र्व ती}{प व नः}{प द्म म्}}%dn</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1463,8 +1907,20 @@
       <c r="C38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{फ}{प फ ब भ म}%dn
+{{फ ट्का री}{फ ल दः}{शी फ रः}}%dn</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1474,8 +1930,20 @@
       <c r="C39" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ब}{प फ ब भ म}%dn
+{{ब न्दि नी}{ब न्धुः}{ब हु}}%dn</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1485,8 +1953,20 @@
       <c r="C40" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{भ}{प फ ब भ म}%dn
+{{भ द्र का ली}{भ र्ता}{भ द्रा}}%dn</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1496,8 +1976,20 @@
       <c r="C41" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{म}{प फ ब भ म}%dn
+{{म हा मा या}{म नुः}{म न्त्र म्}}%dn</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1507,8 +1999,20 @@
       <c r="C42" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{य}{य र ल व}%dn
+{{य श स्वि नी}{य मः}{य ज्ञः}}%dn</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -1518,8 +2022,20 @@
       <c r="C43" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{र}{य र ल व}%dn
+{{र मा}{र विः}{र त्न म्}}%dn</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1529,8 +2045,20 @@
       <c r="C44" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ल}{य र ल व}%dn
+{{ल म्बो ष्ठी}{सु ल भः}{ल क्ष्मी}}%dn</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -1540,8 +2068,20 @@
       <c r="C45" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{व}{य र ल व}%dn
+{{व र दा}{व सुः}{अ व नी}}%dn</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1551,8 +2091,20 @@
       <c r="C46" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{श}{श ष स ह}%dn
+{{श्री}{श ङ्क रः}{श त म्}}%dn</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1562,8 +2114,20 @@
       <c r="C47" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ष}{श ष स ह}%dn
+{{ष ण्डा}{वृ ष भः}{ष ण्मु खः}}%dn</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -1573,8 +2137,20 @@
       <c r="C48" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{स}{श ष स ह}%dn
+{{स र स्व ती}{स त्यः}{स र्व म्}}%dn</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -1584,16 +2160,43 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ह}{श ष स ह}%dn
+{{हं स व ती}{ह रिः}{ह स्त म्}}%dn</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ळ}{ळ क्ष ज्ञ}%dn
+{{न ळ म्}{नी ळ म्}{हे ळ न म्}}%dn</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1603,13 +2206,40 @@
       <c r="C51" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{क्ष}{ळ क्ष ज्ञ}%dn
+{{क्ष मा व ती}{अ क्ष रः}{अ क्ष यः}}%dn</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
       <c r="B52" t="s">
         <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\card
+{ज्ञ}{ळ क्ष ज्ञ}%dn
+{{य ज्ञ भु क्}{ज्ञ प्तिः}{ज्ञ ता}}%dn</v>
       </c>
     </row>
   </sheetData>
